--- a/data/employee_record.xlsx
+++ b/data/employee_record.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="278">
   <si>
     <t>Section</t>
   </si>
@@ -633,9 +633,6 @@
   </si>
   <si>
     <t>SATWINDER SINGH</t>
-  </si>
-  <si>
-    <t>SCI/TECH.OFFICER 'C'</t>
   </si>
   <si>
     <t>CL01145</t>
@@ -872,6 +869,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1257,7 +1255,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1281,16 +1279,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
@@ -1420,7 +1418,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -1454,7 +1452,7 @@
         <v>166</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>55</v>
@@ -1468,10 +1466,10 @@
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -1480,7 +1478,7 @@
         <v>96</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
@@ -1545,10 +1543,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
@@ -1672,10 +1670,10 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>25</v>
@@ -1684,7 +1682,7 @@
         <v>96</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
@@ -1811,7 +1809,7 @@
         <v>153</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>36</v>
@@ -1828,7 +1826,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>36</v>
@@ -1845,7 +1843,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>36</v>
@@ -1862,7 +1860,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>25</v>
@@ -1913,7 +1911,7 @@
         <v>154</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>36</v>
@@ -1930,7 +1928,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>36</v>
@@ -1964,7 +1962,7 @@
         <v>120</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>55</v>
@@ -2012,10 +2010,10 @@
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>25</v>
@@ -2029,10 +2027,10 @@
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>25</v>
@@ -2046,13 +2044,13 @@
     </row>
     <row r="47" spans="1:5" ht="15">
       <c r="A47" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>96</v>
@@ -2067,30 +2065,30 @@
         <v>188</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="E48" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15">
       <c r="A49" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="D49" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15">
@@ -2146,10 +2144,10 @@
     </row>
     <row r="53" spans="1:5" ht="15">
       <c r="A53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>58</v>
@@ -2158,7 +2156,7 @@
         <v>96</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15">
@@ -2169,7 +2167,7 @@
         <v>204</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>96</v>
@@ -2180,10 +2178,10 @@
     </row>
     <row r="55" spans="1:5" ht="15">
       <c r="A55" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>58</v>
@@ -2197,10 +2195,10 @@
     </row>
     <row r="56" spans="1:5" ht="15">
       <c r="A56" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>64</v>
@@ -2214,10 +2212,10 @@
     </row>
     <row r="57" spans="1:5" ht="15">
       <c r="A57" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>58</v>
@@ -2265,7 +2263,7 @@
     </row>
     <row r="60" spans="1:5" ht="15">
       <c r="A60" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>175</v>
@@ -2291,18 +2289,18 @@
         <v>58</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15">
       <c r="A62" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>58</v>
@@ -2316,10 +2314,10 @@
     </row>
     <row r="63" spans="1:5" ht="15">
       <c r="A63" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>58</v>
@@ -2328,7 +2326,7 @@
         <v>96</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15">
@@ -2336,7 +2334,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>58</v>
@@ -2404,7 +2402,7 @@
         <v>123</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>58</v>
@@ -2435,19 +2433,19 @@
     </row>
     <row r="70" spans="1:5" ht="15">
       <c r="A70" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15">
@@ -2469,10 +2467,10 @@
     </row>
     <row r="72" spans="1:5" ht="15">
       <c r="A72" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>64</v>
@@ -2512,10 +2510,10 @@
         <v>64</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15">
@@ -2526,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>14</v>
@@ -2574,7 +2572,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>136</v>
@@ -2597,10 +2595,10 @@
         <v>58</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15">
@@ -2639,10 +2637,10 @@
     </row>
     <row r="82" spans="1:5" ht="15">
       <c r="A82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>114</v>
@@ -2659,7 +2657,7 @@
         <v>137</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>58</v>
@@ -2724,10 +2722,10 @@
     </row>
     <row r="87" spans="1:5" ht="15">
       <c r="A87" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>58</v>
@@ -2736,7 +2734,7 @@
         <v>96</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15">
@@ -2758,10 +2756,10 @@
     </row>
     <row r="89" spans="1:5" ht="15">
       <c r="A89" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>58</v>
@@ -2809,10 +2807,10 @@
     </row>
     <row r="92" spans="1:5" ht="15">
       <c r="A92" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>58</v>
@@ -2937,10 +2935,10 @@
         <v>64</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15">
@@ -2962,10 +2960,10 @@
     </row>
     <row r="101" spans="1:5" ht="15">
       <c r="A101" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>64</v>
@@ -3064,19 +3062,19 @@
     </row>
     <row r="107" spans="1:5" ht="15">
       <c r="A107" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15">
@@ -3152,7 +3150,7 @@
         <v>184</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>25</v>
@@ -3166,10 +3164,10 @@
     </row>
     <row r="113" spans="1:5" ht="15">
       <c r="A113" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>21</v>
@@ -3178,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15">
@@ -3220,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>25</v>
@@ -3251,10 +3249,10 @@
     </row>
     <row r="118" spans="1:5" ht="15">
       <c r="A118" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>25</v>
@@ -3263,7 +3261,7 @@
         <v>96</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15">
@@ -3305,7 +3303,7 @@
         <v>40</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>21</v>
@@ -3339,20 +3337,22 @@
         <v>95</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E123"/>
+  <autoFilter ref="A2:E123">
+    <filterColumn colId="2"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
